--- a/biology/Zoologie/Grand_nègre_des_bois/Grand_nègre_des_bois.xlsx
+++ b/biology/Zoologie/Grand_nègre_des_bois/Grand_nègre_des_bois.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_des_bois</t>
+          <t>Grand_nègre_des_bois</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Minois dryas
-La Dryade (Minois dryas) est une espèce de lépidoptères, un papillon diurne qui appartient à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Minois[1].
+La Dryade (Minois dryas) est une espèce de lépidoptères, un papillon diurne qui appartient à la famille des Nymphalidae, à la sous-famille des Satyrinae et au genre Minois.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_des_bois</t>
+          <t>Grand_nègre_des_bois</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,12 +524,12 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a été nommé Minois dryas par Giovanni Antonio Scopoli en 1763.
-Synonymes : Papilio dryas Scopoli, 1763 ; Papilio phaedra Linnaeus, 1764 ; Hipparchia dryas ; Satyrus dryas[2].
-Noms vernaculaires
-La Dryade se nomme Blauäugiger Waldportier ou Blaukernauge en allemand, Dryad en anglais, Ojos azules en espagnol et Skalnik driada en polonais[3],[2].
+Synonymes : Papilio dryas Scopoli, 1763 ; Papilio phaedra Linnaeus, 1764 ; Hipparchia dryas ; Satyrus dryas.
 </t>
         </is>
       </c>
@@ -528,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_des_bois</t>
+          <t>Grand_nègre_des_bois</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,15 +555,19 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Sous-espèces</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Minois dryas phaedra (L., 1764) ; sud des Alpes (grande et bien ocellée)[4].
-Minois dryas bipunctatus (Motschulsky, 1861) ; dans l'est de l'Asie et au Japon.
-Minois dryas septentrionalis (Wnukowsky, 1929) ;
-Minois dryas shaanxiensis Qian [2].</t>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Dryade se nomme Blauäugiger Waldportier ou Blaukernauge en allemand, Dryad en anglais, Ojos azules en espagnol et Skalnik driada en polonais,.
+</t>
         </is>
       </c>
     </row>
@@ -561,7 +577,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_des_bois</t>
+          <t>Grand_nègre_des_bois</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -576,60 +592,55 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Minois dryas phaedra (L., 1764) ; sud des Alpes (grande et bien ocellée).
+Minois dryas bipunctatus (Motschulsky, 1861) ; dans l'est de l'Asie et au Japon.
+Minois dryas septentrionalis (Wnukowsky, 1929) ;
+Minois dryas shaanxiensis Qian .</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce grand papillon est de couleur très foncée, brun tirant sur le noir chez le mâle[5], se caractérise par ses gros ocelles centrés de bleu sur les deux faces de l'aile antérieure.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce grand papillon est de couleur très foncée, brun tirant sur le noir chez le mâle, se caractérise par ses gros ocelles centrés de bleu sur les deux faces de l'aile antérieure.
 Son envergure va de 45 à 70 mm et la femelle est plus grande que le mâle qui ne dépasse pas 60 mm.
 			Minois dryas ♂  MHNT
 			Minois dryas ♂   △
 			Les ocelles sont bien visibles
 			le même, ailes repliées
 			Le mâle est brun très foncé
-Œufs
-Les œufs, sphériques et d'aspect nacré, sont pondus séparément sur une de ses plantes hôtes, des poacées.
-Chenille
-La chenille hiberne au premier ou au second stade.
-Proche de la nymphose, elle est brun grisâtre rayée de marron, longue de 30 à 35 mm.
-Chrysalide
-Elle est de couleur brun-orangé.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Grand_n%C3%A8gre_des_bois</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La période de vol s'étend de juillet à septembre en une seule génération.
-L'hibernation a lieu au stade de chenille.
-Plantes hôtes
-La chenille se nourrit de poacées (graminées), surtout Poa, Avena, Bromus, Dactylis, Festuca, Arrhenatherum elatius, Oryza sativa, Molinia caerulea et aussi de cypéracées : Carex[2].
 </t>
         </is>
       </c>
@@ -640,7 +651,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Grand_n%C3%A8gre_des_bois</t>
+          <t>Grand_nègre_des_bois</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -655,17 +666,276 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Œufs</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les œufs, sphériques et d'aspect nacré, sont pondus séparément sur une de ses plantes hôtes, des poacées.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille hiberne au premier ou au second stade.
+Proche de la nymphose, elle est brun grisâtre rayée de marron, longue de 30 à 35 mm.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Chrysalide</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est de couleur brun-orangé.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La période de vol s'étend de juillet à septembre en une seule génération.
+L'hibernation a lieu au stade de chenille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La chenille se nourrit de poacées (graminées), surtout Poa, Avena, Bromus, Dactylis, Festuca, Arrhenatherum elatius, Oryza sativa, Molinia caerulea et aussi de cypéracées : Carex.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">La Dryade est un papillon présent du sud de l’Europe jusqu’au Japon et particulièrement en Asie centrale.
-En France métropolitaine, il serait présent dans de nombreux départements de la moitié sud sauf en Corse et absent dans le quart nord du pays[1],[6],[7].
-Biotope
-Il affectionne les prairies sèches, les friches et les bois clairs.
-Protection
-Il ne bénéficie pas de statut de protection spécifique[8].
+En France métropolitaine, il serait présent dans de nombreux départements de la moitié sud sauf en Corse et absent dans le quart nord du pays.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il affectionne les prairies sèches, les friches et les bois clairs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Grand_nègre_des_bois</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Grand_n%C3%A8gre_des_bois</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il ne bénéficie pas de statut de protection spécifique.
 </t>
         </is>
       </c>
